--- a/thematic_coding_analysis.xlsx
+++ b/thematic_coding_analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Google Drive\Master\Thesis\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Interviews\pushed\industry_percpectives_interviews_and_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ASAL Technologies AT" sheetId="1" r:id="rId1"/>
@@ -449,9 +449,6 @@
     <t>The development approach decision depends on the project nature (requirements)</t>
   </si>
   <si>
-    <t>If the app requires high access on device resources (ex: GPS) then we go cross-platform since it will be complicated in native</t>
-  </si>
-  <si>
     <t>We choose the cross-platform technology depends on our experience</t>
   </si>
   <si>
@@ -594,6 +591,9 @@
   </si>
   <si>
     <t>Automated tests may be written in enterprises level or in very matured startups</t>
+  </si>
+  <si>
+    <t>If the app requires high access on device resources (ex: GPS) then we go native since it will be complicated in cross-platform</t>
   </si>
 </sst>
 </file>
@@ -779,6 +779,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -793,9 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,14 +1138,14 @@
         <v>7</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -1161,12 +1161,12 @@
         <v>7</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1197,14 +1197,14 @@
         <v>7</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -1220,12 +1220,12 @@
         <v>7</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -1346,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1425,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1714,14 +1714,14 @@
         <v>43</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
+      <c r="G40" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
@@ -1737,12 +1737,12 @@
         <v>43</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
@@ -1865,14 +1865,14 @@
         <v>53</v>
       </c>
       <c r="F49" s="8"/>
-      <c r="G49" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
+      <c r="G49" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
@@ -1882,18 +1882,18 @@
         <v>26</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F50" s="8"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
@@ -1909,8 +1909,8 @@
         <v>53</v>
       </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="29" t="s">
-        <v>185</v>
+      <c r="G51" s="24" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2051,14 +2051,14 @@
         <v>7</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="G5" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -2074,12 +2074,12 @@
         <v>7</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -2110,14 +2110,14 @@
         <v>7</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="G8" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -2133,12 +2133,12 @@
         <v>7</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -2169,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2411,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2428,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2550,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2567,7 +2567,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2689,14 +2689,14 @@
         <v>43</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
+      <c r="G45" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
@@ -2712,12 +2712,12 @@
         <v>43</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
@@ -2975,14 +2975,14 @@
         <v>53</v>
       </c>
       <c r="F63" s="9"/>
-      <c r="G63" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
+      <c r="G63" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
     </row>
     <row r="64" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
@@ -2998,12 +2998,12 @@
         <v>53</v>
       </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
@@ -3036,14 +3036,14 @@
       <c r="F66" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G66" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
+      <c r="G66" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
     </row>
     <row r="67" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
@@ -3061,12 +3061,12 @@
       <c r="F67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
     </row>
     <row r="68" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
@@ -3076,7 +3076,7 @@
         <v>33</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>53</v>
@@ -3176,14 +3176,14 @@
         <v>136</v>
       </c>
       <c r="F74" s="3"/>
-      <c r="G74" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
+      <c r="G74" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
     </row>
     <row r="75" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
@@ -3217,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>7</v>
@@ -3284,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>7</v>
@@ -3299,22 +3299,22 @@
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+        <v>165</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -3324,20 +3324,20 @@
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>165</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -3347,13 +3347,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3364,13 +3364,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3381,7 +3381,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>7</v>
@@ -3396,20 +3396,20 @@
         <v>6</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="G11" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
@@ -3419,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>53</v>
@@ -3434,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>53</v>
@@ -3442,14 +3442,14 @@
       <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="G13" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -3459,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>136</v>
@@ -3474,20 +3474,20 @@
         <v>14</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="G15" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3504,7 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3536,13 +3536,13 @@
     </row>
     <row r="3" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>7</v>
@@ -3551,74 +3551,74 @@
     </row>
     <row r="4" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="G4" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>7</v>
@@ -3627,30 +3627,30 @@
     </row>
     <row r="8" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="G8" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6">
         <v>11</v>
@@ -3662,24 +3662,24 @@
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+        <v>165</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6">
         <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>7</v>
@@ -3688,13 +3688,13 @@
     </row>
     <row r="11" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="6">
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>7</v>
@@ -3703,13 +3703,13 @@
     </row>
     <row r="12" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4">
         <v>7</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>43</v>
@@ -3718,72 +3718,72 @@
     </row>
     <row r="13" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="G13" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4">
         <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="8">
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>53</v>
@@ -3792,15 +3792,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>136</v>
